--- a/biology/Mycologie/Lactarius_vinaceorufescens/Lactarius_vinaceorufescens.xlsx
+++ b/biology/Mycologie/Lactarius_vinaceorufescens/Lactarius_vinaceorufescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lactarius vinaceorufescens, le Lactaire à lait jaune, est une espèce de champignons basidiomycètes de la famille des Russulaceae[1]. Il provient d'Amérique du Nord, et a été introduit en Europe par inadvertance[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lactarius vinaceorufescens, le Lactaire à lait jaune, est une espèce de champignons basidiomycètes de la famille des Russulaceae. Il provient d'Amérique du Nord, et a été introduit en Europe par inadvertance.
  Il s'agit d'un champignon vénéneux dont la consommation est fortement déconseillée.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (16 janvier 2023)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (16 janvier 2023) :
 Lactarius vinaceorufescens var. fallax Hesler &amp; A.H. Sm., 1960
 Lactarius vinaceorufescens var. vinaceorufescens A.H. Sm., 1960</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chapeau d'un diamètre de 4 à 12 cm, convexe puis étalé et légèrement déprimé, orangé, couvert d'une pruine blanchâtre par temps sec.
 Lames serrées, inégales, fourchues, orangées, sporée jaune pâle.
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) L. R. Hesler et Alexander H. Smith, « Studies on Lactarius-II the North American Species of Sections Scrobiculus, Crocei, Theiogali and Vellus », Brittonia, Springer Science+Business Media, vol. 12, no 4,‎ 15 octobre 1960, p. 306 (ISSN 0007-196X et 1938-436X, DOI 10.2307/2805123, JSTOR 2805123)</t>
         </is>
